--- a/output/design_bucatarie_george_output/Comanda_PFL_Alb_George Mihes.xlsx
+++ b/output/design_bucatarie_george_output/Comanda_PFL_Alb_George Mihes.xlsx
@@ -1649,14 +1649,14 @@
         <v>596</v>
       </c>
       <c r="C10" s="105" t="n">
-        <v>1996</v>
+        <v>738</v>
       </c>
       <c r="D10" s="105" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="105" t="inlineStr">
         <is>
-          <t>T1.pfl</t>
+          <t>C1.pfl</t>
         </is>
       </c>
       <c r="F10" s="105" t="n"/>
@@ -1744,14 +1744,14 @@
         <v>596</v>
       </c>
       <c r="C11" s="108" t="n">
-        <v>738</v>
+        <v>776</v>
       </c>
       <c r="D11" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="108" t="inlineStr">
         <is>
-          <t>C1.pfl</t>
+          <t>S1.pfl</t>
         </is>
       </c>
       <c r="F11" s="108" t="n"/>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B12" s="108" t="n">
-        <v>896</v>
+        <v>846</v>
       </c>
       <c r="C12" s="108" t="n">
         <v>738</v>
@@ -1932,17 +1932,17 @@
         </is>
       </c>
       <c r="B13" s="108" t="n">
-        <v>596</v>
+        <v>296</v>
       </c>
       <c r="C13" s="108" t="n">
-        <v>738</v>
+        <v>776</v>
       </c>
       <c r="D13" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="108" t="inlineStr">
         <is>
-          <t>C3.pfl</t>
+          <t>S2.pfl</t>
         </is>
       </c>
       <c r="F13" s="108" t="n"/>
@@ -2028,17 +2028,17 @@
         </is>
       </c>
       <c r="B14" s="108" t="n">
-        <v>146</v>
+        <v>596</v>
       </c>
       <c r="C14" s="108" t="n">
-        <v>738</v>
+        <v>776</v>
       </c>
       <c r="D14" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="108" t="inlineStr">
         <is>
-          <t>C6.pfl</t>
+          <t>S3.pfl</t>
         </is>
       </c>
       <c r="F14" s="108" t="n"/>
@@ -2124,17 +2124,17 @@
         </is>
       </c>
       <c r="B15" s="108" t="n">
-        <v>146</v>
+        <v>596</v>
       </c>
       <c r="C15" s="108" t="n">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="D15" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="108" t="inlineStr">
         <is>
-          <t>C6.pfl</t>
+          <t>C3.pfl</t>
         </is>
       </c>
       <c r="F15" s="108" t="n"/>
@@ -2220,17 +2220,17 @@
         </is>
       </c>
       <c r="B16" s="108" t="n">
-        <v>596</v>
+        <v>208</v>
       </c>
       <c r="C16" s="108" t="n">
-        <v>496</v>
+        <v>776</v>
       </c>
       <c r="D16" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="108" t="inlineStr">
         <is>
-          <t>S1.pfl</t>
+          <t>S4.pfl</t>
         </is>
       </c>
       <c r="F16" s="108" t="n"/>
@@ -2316,17 +2316,17 @@
         </is>
       </c>
       <c r="B17" s="108" t="n">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="C17" s="108" t="n">
-        <v>496</v>
+        <v>738</v>
       </c>
       <c r="D17" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="108" t="inlineStr">
         <is>
-          <t>S2.pfl</t>
+          <t>C6.pfl</t>
         </is>
       </c>
       <c r="F17" s="108" t="n"/>
@@ -2412,17 +2412,17 @@
         </is>
       </c>
       <c r="B18" s="108" t="n">
-        <v>596</v>
+        <v>196</v>
       </c>
       <c r="C18" s="108" t="n">
-        <v>496</v>
+        <v>738</v>
       </c>
       <c r="D18" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="108" t="inlineStr">
         <is>
-          <t>S3.pfl</t>
+          <t>C6.pfl</t>
         </is>
       </c>
       <c r="F18" s="108" t="n"/>
@@ -2508,17 +2508,17 @@
         </is>
       </c>
       <c r="B19" s="108" t="n">
-        <v>208</v>
+        <v>596</v>
       </c>
       <c r="C19" s="108" t="n">
-        <v>496</v>
+        <v>776</v>
       </c>
       <c r="D19" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="108" t="inlineStr">
         <is>
-          <t>S4.pfl</t>
+          <t>S5.pfl</t>
         </is>
       </c>
       <c r="F19" s="108" t="n"/>
@@ -2598,25 +2598,11 @@
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" s="50">
-      <c r="A20" s="108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B20" s="108" t="n">
-        <v>596</v>
-      </c>
-      <c r="C20" s="108" t="n">
-        <v>446</v>
-      </c>
-      <c r="D20" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="108" t="inlineStr">
-        <is>
-          <t>S5.pfl</t>
-        </is>
-      </c>
+      <c r="A20" s="108" t="n"/>
+      <c r="B20" s="108" t="n"/>
+      <c r="C20" s="108" t="n"/>
+      <c r="D20" s="108" t="n"/>
+      <c r="E20" s="108" t="n"/>
       <c r="F20" s="108" t="n"/>
       <c r="G20" s="108" t="n"/>
       <c r="H20" s="108" t="n"/>
